--- a/ResultsAnalysis/time_encoders_per_dataset.xlsx
+++ b/ResultsAnalysis/time_encoders_per_dataset.xlsx
@@ -8,38 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\ResultsAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F48BEE-198A-4D61-A242-6F495A0301B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1A0D9-6C42-4D74-8407-B2FD9C318A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5796" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Dataset</t>
   </si>
   <si>
+    <t>CountEncoding</t>
+  </si>
+  <si>
+    <t>OrdinalEncoder</t>
+  </si>
+  <si>
+    <t>HGB_NativeSupport</t>
+  </si>
+  <si>
+    <t>TargetEncoder</t>
+  </si>
+  <si>
     <t>CatboostNativeSupport</t>
   </si>
   <si>
-    <t>CountEncoding</t>
-  </si>
-  <si>
-    <t>HGB_NativeSupport</t>
-  </si>
-  <si>
-    <t>OrdinalEncoder</t>
-  </si>
-  <si>
-    <t>TargetEncoder</t>
-  </si>
-  <si>
     <t>Amazon_employee_access</t>
   </si>
   <si>
@@ -59,13 +72,16 @@
   </si>
   <si>
     <t>open_payments</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +93,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -422,180 +447,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+      <selection activeCell="F9" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>-326.15795207023598</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="3">
+        <v>-326.15795207023621</v>
+      </c>
+      <c r="C2" s="3">
         <v>-326.69273201624549</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>-326.02335222562152</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-328.12406643231708</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>-113.9423397779465</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>-465.70465834935521</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>-467.31908965110779</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-465.71140400568652</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-467.33272711435961</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>-254.20920705795291</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>-9.9240986506144235</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>-10.262132604916889</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>-10.304830352465309</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-10.220821301142379</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>27.738036930561069</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>-9.9877418677012155</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>-10.41737552483877</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>-10.491880615552271</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-10.394511699676521</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>25.261711239814758</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>-15.260848244031269</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>-15.59880173206329</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>-15.53691331545512</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-15.642734607060749</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>122.2185254096985</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>-219.39904435475671</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>-222.00965567429861</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>-226.57040075461069</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-227.40294206142431</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>163.19198596477511</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>-331.86788829167682</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-332.29731416702271</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>-331.52223547299701</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-332.46363353729248</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>-90.271781206130981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <f>AVERAGE(B2:B8)</f>
+        <v>-196.90031883262455</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:F9" si="0">AVERAGE(C2:C8)</f>
+        <v>-197.79958591007053</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-198.02300239176975</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>-198.79734810761042</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>-17.144724071025852</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsAnalysis/time_encoders_per_dataset.xlsx
+++ b/ResultsAnalysis/time_encoders_per_dataset.xlsx
@@ -1,109 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\ResultsAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1A0D9-6C42-4D74-8407-B2FD9C318A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-5796" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>CountEncoding</t>
-  </si>
-  <si>
-    <t>OrdinalEncoder</t>
-  </si>
-  <si>
-    <t>HGB_NativeSupport</t>
-  </si>
-  <si>
-    <t>TargetEncoder</t>
-  </si>
-  <si>
-    <t>CatboostNativeSupport</t>
-  </si>
-  <si>
-    <t>Amazon_employee_access</t>
-  </si>
-  <si>
-    <t>Click_prediction_small</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>churn</t>
-  </si>
-  <si>
-    <t>kdd_internet_usage</t>
-  </si>
-  <si>
-    <t>kick</t>
-  </si>
-  <si>
-    <t>open_payments</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,47 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -446,206 +420,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="B2:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-326.15795207023621</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-326.69273201624549</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-326.02335222562152</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-328.12406643231708</v>
-      </c>
-      <c r="F2" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CatboostNativeSupport</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CountEncoding</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>HGB_NativeSupport</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_employee_access</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-113.9423397779465</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-465.70465834935521</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-467.31908965110779</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-465.71140400568652</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-467.33272711435961</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-254.20920705795291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-9.9240986506144235</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-10.262132604916889</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-10.304830352465309</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-10.220821301142379</v>
-      </c>
-      <c r="F4" s="3">
-        <v>27.738036930561069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-9.9877418677012155</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C2" t="n">
+        <v>-326.1579520702362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-326.0233522256215</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-326.6927320162455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-328.1240664323171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Click_prediction_small</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-254.2092070579529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-465.7046583493552</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-465.7114040056865</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-467.3190896511078</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-467.3327271143596</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>154.4093878269196</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-47.08145129680634</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-47.94445145130157</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-48.00865530967712</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-49.15131556987762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>churn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25.26171123981476</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.987741867701216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-10.49188061555227</v>
+      </c>
+      <c r="E5" t="n">
         <v>-10.41737552483877</v>
       </c>
-      <c r="D5" s="3">
-        <v>-10.491880615552271</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-10.394511699676521</v>
-      </c>
-      <c r="F5" s="3">
-        <v>25.261711239814758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-15.260848244031269</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="F5" t="n">
+        <v>-10.39451169967652</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>kdd_internet_usage</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>122.2185254096985</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-15.26084824403127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-15.53691331545512</v>
+      </c>
+      <c r="E6" t="n">
         <v>-15.59880173206329</v>
       </c>
-      <c r="D6" s="3">
-        <v>-15.53691331545512</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-15.642734607060749</v>
-      </c>
-      <c r="F6" s="3">
-        <v>122.2185254096985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-219.39904435475671</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-222.00965567429861</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-226.57040075461069</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-227.40294206142431</v>
-      </c>
-      <c r="F7" s="3">
-        <v>163.19198596477511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-331.86788829167682</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-332.29731416702271</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-331.52223547299701</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-332.46363353729248</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-90.271781206130981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <f>AVERAGE(B2:B8)</f>
-        <v>-196.90031883262455</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="0">AVERAGE(C2:C8)</f>
-        <v>-197.79958591007053</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>-198.02300239176975</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>-198.79734810761042</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>-17.144724071025852</v>
+      <c r="F6" t="n">
+        <v>-15.64273460706075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>kick</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>163.1919859647751</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-219.3990443547567</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-226.5704007546107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-222.0096556742986</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-227.4029420614243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>open_payments</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-90.27178120613098</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-331.8678882916768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-331.522235472997</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-332.2973141670227</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-332.4636335372925</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsAnalysis/time_encoders_per_dataset.xlsx
+++ b/ResultsAnalysis/time_encoders_per_dataset.xlsx
@@ -1,37 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\ResultsAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F2153-3A3A-42FA-B72C-3E583762713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>CatboostNativeSupport</t>
+  </si>
+  <si>
+    <t>CountEncoding</t>
+  </si>
+  <si>
+    <t>HGB_NativeSupport</t>
+  </si>
+  <si>
+    <t>OrdinalEncoder</t>
+  </si>
+  <si>
+    <t>TargetEncoder</t>
+  </si>
+  <si>
+    <t>Amazon_employee_access</t>
+  </si>
+  <si>
+    <t>Click_prediction_small</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>churn</t>
+  </si>
+  <si>
+    <t>kdd_internet_usage</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
+    <t>open_payments</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +115,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,203 +440,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CatboostNativeSupport</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CountEncoding</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HGB_NativeSupport</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OrdinalEncoder</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Amazon_employee_access</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-326.15795207023621</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-326.69273201624549</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-326.02335222562152</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-328.12406643231708</v>
+      </c>
+      <c r="F2" s="2">
         <v>-113.9423397779465</v>
       </c>
-      <c r="C2" t="n">
-        <v>-326.1579520702362</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-326.0233522256215</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-326.6927320162455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-328.1240664323171</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Click_prediction_small</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-254.2092070579529</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-465.7046583493552</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-465.7114040056865</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-467.3190896511078</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-467.3327271143596</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>154.4093878269196</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-47.08145129680634</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-47.94445145130157</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-48.00865530967712</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-49.15131556987762</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>churn</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25.26171123981476</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-9.987741867701216</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-10.49188061555227</v>
-      </c>
-      <c r="E5" t="n">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-465.70465834935521</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-467.31908965110779</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-465.71140400568652</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-467.33272711435961</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-254.20920705795291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-47.081451296806343</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-48.008655309677117</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-47.944451451301568</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-49.151315569877617</v>
+      </c>
+      <c r="F4" s="2">
+        <v>154.40938782691961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-9.9877418677012155</v>
+      </c>
+      <c r="C5" s="2">
         <v>-10.41737552483877</v>
       </c>
-      <c r="F5" t="n">
-        <v>-10.39451169967652</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>kdd_internet_usage</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="D5" s="2">
+        <v>-10.491880615552271</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-10.394511699676521</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25.261711239814758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-15.260848244031269</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-15.59880173206329</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-15.53691331545512</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-15.642734607060749</v>
+      </c>
+      <c r="F6" s="2">
         <v>122.2185254096985</v>
       </c>
-      <c r="C6" t="n">
-        <v>-15.26084824403127</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-15.53691331545512</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-15.59880173206329</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-15.64273460706075</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>kick</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>163.1919859647751</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-219.3990443547567</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-226.5704007546107</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-222.0096556742986</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-227.4029420614243</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>open_payments</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-90.27178120613098</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-331.8678882916768</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-331.522235472997</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-332.2973141670227</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-332.4636335372925</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-219.39904435475671</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-222.00965567429861</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-226.57040075461069</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-227.40294206142431</v>
+      </c>
+      <c r="F7" s="2">
+        <v>163.19198596477511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-331.86788829167682</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-332.29731416702271</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-331.52223547299701</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-332.46363353729248</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-90.271781206130981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>-202.20851206779483</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:F9" si="0">AVERAGE(C2:C8)</f>
+        <v>-203.19194629646481</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-203.40009112017495</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>-204.35884728885836</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95118319988251343</v>
       </c>
     </row>
   </sheetData>
